--- a/vgp_database/East_Fork_Basin_sediments.xlsx
+++ b/vgp_database/East_Fork_Basin_sediments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Name:</t>
   </si>
@@ -51,24 +51,7 @@
     <t>k</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>95</t>
-    </r>
+    <t>alpha95</t>
   </si>
   <si>
     <t>f_corr</t>
@@ -95,9 +78,6 @@
     <t>mean_age</t>
   </si>
   <si>
-    <t>2sig_mean</t>
-  </si>
-  <si>
     <t>min_age</t>
   </si>
   <si>
@@ -110,19 +90,25 @@
     <t>2sig_max</t>
   </si>
   <si>
-    <t>error_dist</t>
+    <t>uncer_dist</t>
   </si>
   <si>
-    <t>lithology_1</t>
+    <t>rock_typ_1</t>
   </si>
   <si>
-    <t>lithology_2</t>
+    <t>rock_typ_2</t>
+  </si>
+  <si>
+    <t>rock_typ_3</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>R2</t>
+    <t>R2a</t>
+  </si>
+  <si>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -131,7 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5</t>
+    <t>R5a</t>
+  </si>
+  <si>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -182,25 +171,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>alpha95</t>
-  </si>
-  <si>
     <t>VGP_lat</t>
   </si>
   <si>
     <t>VGP_lon</t>
-  </si>
-  <si>
-    <t>uncer_dist</t>
-  </si>
-  <si>
-    <t>rock_typ_1</t>
-  </si>
-  <si>
-    <t>rock_typ_2</t>
-  </si>
-  <si>
-    <t>rock_typ_3</t>
   </si>
   <si>
     <t>demag</t>
@@ -237,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -266,12 +240,6 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -325,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -348,19 +316,16 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -378,16 +343,13 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -786,7 +748,7 @@
       <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -861,116 +823,120 @@
       <c r="AH4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AI4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
+      <c r="AK4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM4" s="11"/>
       <c r="AN4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1.0</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>39</v>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>43.4</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>-109.8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>43.0</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>351.1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>57.2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>15.5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>5.6</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>0.0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>81.2</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>123.6</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17">
+      <c r="M5" s="15"/>
+      <c r="N5" s="16">
         <v>6.9780513039099965</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>5.96</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>8.17</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="14" t="s">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="T5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="18" t="s">
-        <v>40</v>
+      <c r="X5" s="13" t="s">
+        <v>44</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="Y5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="13">
         <v>1.0</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="13">
         <v>0.0</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="13">
         <v>0.0</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="13">
         <v>0.0</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="13">
         <v>1.0</v>
       </c>
-      <c r="AF5" s="18" t="s">
-        <v>40</v>
+      <c r="AF5" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="AG5" s="19" t="s">
-        <v>44</v>
+      <c r="AG5" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="19" t="s">
-        <v>45</v>
+      <c r="AI5" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="AJ5" s="20"/>
+      <c r="AJ5" s="19"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
@@ -1023,7 +989,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1073,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
@@ -1082,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>8</v>
@@ -1094,16 +1060,16 @@
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>50</v>
+      <c r="K8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>15</v>
@@ -1121,73 +1087,73 @@
         <v>19</v>
       </c>
       <c r="R8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="T8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="U8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>52</v>
+      <c r="W8" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="X8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="AA8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="AB8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="AC8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="7" t="s">
+      <c r="AD8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AE8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AF8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AG8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AH8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="AI8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
+      <c r="AK8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
